--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.480748</v>
+        <v>34.71251733333333</v>
       </c>
       <c r="H2">
-        <v>139.442244</v>
+        <v>104.137552</v>
       </c>
       <c r="I2">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="J2">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N2">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O2">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P2">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q2">
-        <v>42.57317348997066</v>
+        <v>89.06642992022576</v>
       </c>
       <c r="R2">
-        <v>383.158561409736</v>
+        <v>801.597869282032</v>
       </c>
       <c r="S2">
-        <v>0.00536714866571676</v>
+        <v>0.01043954704862134</v>
       </c>
       <c r="T2">
-        <v>0.005367148665716759</v>
+        <v>0.01043954704862134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.480748</v>
+        <v>34.71251733333333</v>
       </c>
       <c r="H3">
-        <v>139.442244</v>
+        <v>104.137552</v>
       </c>
       <c r="I3">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="J3">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.705039</v>
       </c>
       <c r="O3">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P3">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q3">
-        <v>491.2246426963906</v>
+        <v>366.8539052805031</v>
       </c>
       <c r="R3">
-        <v>4421.021784267516</v>
+        <v>3301.685147524528</v>
       </c>
       <c r="S3">
-        <v>0.06192809860031277</v>
+        <v>0.04299923784501657</v>
       </c>
       <c r="T3">
-        <v>0.06192809860031277</v>
+        <v>0.04299923784501657</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.480748</v>
+        <v>34.71251733333333</v>
       </c>
       <c r="H4">
-        <v>139.442244</v>
+        <v>104.137552</v>
       </c>
       <c r="I4">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="J4">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N4">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O4">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P4">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q4">
-        <v>578.6095179935946</v>
+        <v>474.9978024685298</v>
       </c>
       <c r="R4">
-        <v>5207.485661942351</v>
+        <v>4274.980222216768</v>
       </c>
       <c r="S4">
-        <v>0.0729446044984625</v>
+        <v>0.05567486999651138</v>
       </c>
       <c r="T4">
-        <v>0.0729446044984625</v>
+        <v>0.05567486999651138</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.480748</v>
+        <v>34.71251733333333</v>
       </c>
       <c r="H5">
-        <v>139.442244</v>
+        <v>104.137552</v>
       </c>
       <c r="I5">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="J5">
-        <v>0.1473944418036111</v>
+        <v>0.111750244749681</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N5">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O5">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P5">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q5">
-        <v>56.75147493689866</v>
+        <v>22.49442862402489</v>
       </c>
       <c r="R5">
-        <v>510.7632744320879</v>
+        <v>202.449857616224</v>
       </c>
       <c r="S5">
-        <v>0.007154590039119108</v>
+        <v>0.002636589859531748</v>
       </c>
       <c r="T5">
-        <v>0.007154590039119107</v>
+        <v>0.002636589859531748</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>192.830597</v>
       </c>
       <c r="H6">
-        <v>578.491791</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I6">
-        <v>0.6114823756165045</v>
+        <v>0.620780861354714</v>
       </c>
       <c r="J6">
-        <v>0.6114823756165045</v>
+        <v>0.6207808613547139</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N6">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O6">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P6">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q6">
-        <v>176.6195858176727</v>
+        <v>494.7705949773755</v>
       </c>
       <c r="R6">
-        <v>1589.576272359054</v>
+        <v>4452.93535479638</v>
       </c>
       <c r="S6">
-        <v>0.02226621829317197</v>
+        <v>0.05799245472359213</v>
       </c>
       <c r="T6">
-        <v>0.02226621829317196</v>
+        <v>0.05799245472359212</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>192.830597</v>
       </c>
       <c r="H7">
-        <v>578.491791</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I7">
-        <v>0.6114823756165045</v>
+        <v>0.620780861354714</v>
       </c>
       <c r="J7">
-        <v>0.6114823756165045</v>
+        <v>0.6207808613547139</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>31.705039</v>
       </c>
       <c r="O7">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P7">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q7">
-        <v>2037.900532759428</v>
+        <v>2037.900532759427</v>
       </c>
       <c r="R7">
         <v>18341.10479483485</v>
       </c>
       <c r="S7">
-        <v>0.2569156637533711</v>
+        <v>0.2388639413436434</v>
       </c>
       <c r="T7">
-        <v>0.2569156637533711</v>
+        <v>0.2388639413436433</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>192.830597</v>
       </c>
       <c r="H8">
-        <v>578.491791</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I8">
-        <v>0.6114823756165045</v>
+        <v>0.620780861354714</v>
       </c>
       <c r="J8">
-        <v>0.6114823756165045</v>
+        <v>0.6207808613547139</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N8">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O8">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P8">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q8">
-        <v>2400.426490223158</v>
+        <v>2638.647867112183</v>
       </c>
       <c r="R8">
-        <v>21603.83841200843</v>
+        <v>23747.83080400964</v>
       </c>
       <c r="S8">
-        <v>0.3026188742351438</v>
+        <v>0.3092780139288662</v>
       </c>
       <c r="T8">
-        <v>0.3026188742351437</v>
+        <v>0.3092780139288662</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,43 +974,43 @@
         <v>192.830597</v>
       </c>
       <c r="H9">
-        <v>578.491791</v>
+        <v>578.4917909999999</v>
       </c>
       <c r="I9">
-        <v>0.6114823756165045</v>
+        <v>0.620780861354714</v>
       </c>
       <c r="J9">
-        <v>0.6114823756165045</v>
+        <v>0.6207808613547139</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N9">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O9">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P9">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q9">
-        <v>235.4398598041647</v>
+        <v>124.9582120216713</v>
       </c>
       <c r="R9">
-        <v>2118.958738237482</v>
+        <v>1124.623908195042</v>
       </c>
       <c r="S9">
-        <v>0.02968161933481774</v>
+        <v>0.0146464513586123</v>
       </c>
       <c r="T9">
-        <v>0.02968161933481774</v>
+        <v>0.0146464513586123</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.00705666666667</v>
+        <v>19.96051866666667</v>
       </c>
       <c r="H10">
-        <v>48.02117</v>
+        <v>59.881556</v>
       </c>
       <c r="I10">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584988</v>
       </c>
       <c r="J10">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584986</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N10">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O10">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P10">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q10">
-        <v>14.66136475544222</v>
+        <v>51.21530426399956</v>
       </c>
       <c r="R10">
-        <v>131.95228279898</v>
+        <v>460.937738375996</v>
       </c>
       <c r="S10">
-        <v>0.001848340582439692</v>
+        <v>0.006002986523119474</v>
       </c>
       <c r="T10">
-        <v>0.001848340582439692</v>
+        <v>0.006002986523119473</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.00705666666667</v>
+        <v>19.96051866666667</v>
       </c>
       <c r="H11">
-        <v>48.02117</v>
+        <v>59.881556</v>
       </c>
       <c r="I11">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584988</v>
       </c>
       <c r="J11">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584986</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>31.705039</v>
       </c>
       <c r="O11">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P11">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q11">
-        <v>169.1681186306255</v>
+        <v>210.9496742622982</v>
       </c>
       <c r="R11">
-        <v>1522.51306767563</v>
+        <v>1898.547068360684</v>
       </c>
       <c r="S11">
-        <v>0.02132682080663003</v>
+        <v>0.02472557900125864</v>
       </c>
       <c r="T11">
-        <v>0.02132682080663003</v>
+        <v>0.02472557900125863</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.00705666666667</v>
+        <v>19.96051866666667</v>
       </c>
       <c r="H12">
-        <v>48.02117</v>
+        <v>59.881556</v>
       </c>
       <c r="I12">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584988</v>
       </c>
       <c r="J12">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584986</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N12">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O12">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P12">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q12">
-        <v>199.2617533262622</v>
+        <v>273.1349735242116</v>
       </c>
       <c r="R12">
-        <v>1793.35577993636</v>
+        <v>2458.214761717904</v>
       </c>
       <c r="S12">
-        <v>0.02512068905892989</v>
+        <v>0.03201436735798069</v>
       </c>
       <c r="T12">
-        <v>0.02512068905892989</v>
+        <v>0.03201436735798068</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.00705666666667</v>
+        <v>19.96051866666667</v>
       </c>
       <c r="H13">
-        <v>48.02117</v>
+        <v>59.881556</v>
       </c>
       <c r="I13">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584988</v>
       </c>
       <c r="J13">
-        <v>0.05075975073168155</v>
+        <v>0.06425903442584986</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N13">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O13">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P13">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q13">
-        <v>19.54409329281556</v>
+        <v>12.93482861338578</v>
       </c>
       <c r="R13">
-        <v>175.89683963534</v>
+        <v>116.413457520472</v>
       </c>
       <c r="S13">
-        <v>0.002463900283681933</v>
+        <v>0.001516101543491079</v>
       </c>
       <c r="T13">
-        <v>0.002463900283681933</v>
+        <v>0.001516101543491079</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.030993</v>
+        <v>63.12224</v>
       </c>
       <c r="H14">
-        <v>180.092979</v>
+        <v>189.36672</v>
       </c>
       <c r="I14">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="J14">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N14">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O14">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P14">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q14">
-        <v>54.984267459814</v>
+        <v>161.9609580999467</v>
       </c>
       <c r="R14">
-        <v>494.858407138326</v>
+        <v>1457.64862289952</v>
       </c>
       <c r="S14">
-        <v>0.006931800322611034</v>
+        <v>0.01898357263941737</v>
       </c>
       <c r="T14">
-        <v>0.006931800322611033</v>
+        <v>0.01898357263941736</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.030993</v>
+        <v>63.12224</v>
       </c>
       <c r="H15">
-        <v>180.092979</v>
+        <v>189.36672</v>
       </c>
       <c r="I15">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="J15">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>31.705039</v>
       </c>
       <c r="O15">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P15">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q15">
-        <v>634.428324757909</v>
+        <v>667.0976936557865</v>
       </c>
       <c r="R15">
-        <v>5709.854922821181</v>
+        <v>6003.87924290208</v>
       </c>
       <c r="S15">
-        <v>0.0799816141852684</v>
+        <v>0.0781910509401129</v>
       </c>
       <c r="T15">
-        <v>0.0799816141852684</v>
+        <v>0.07819105094011289</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.030993</v>
+        <v>63.12224</v>
       </c>
       <c r="H16">
-        <v>180.092979</v>
+        <v>189.36672</v>
       </c>
       <c r="I16">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="J16">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N16">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O16">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P16">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q16">
-        <v>747.2879723107479</v>
+        <v>863.7496669853867</v>
       </c>
       <c r="R16">
-        <v>6725.591750796732</v>
+        <v>7773.74700286848</v>
       </c>
       <c r="S16">
-        <v>0.09420969391531675</v>
+        <v>0.1012407850500055</v>
       </c>
       <c r="T16">
-        <v>0.09420969391531675</v>
+        <v>0.1012407850500055</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>60.030993</v>
+        <v>63.12224</v>
       </c>
       <c r="H17">
-        <v>180.092979</v>
+        <v>189.36672</v>
       </c>
       <c r="I17">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="J17">
-        <v>0.1903634318482028</v>
+        <v>0.2032098594697551</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N17">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O17">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P17">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q17">
-        <v>73.295881440562</v>
+        <v>40.90451604629333</v>
       </c>
       <c r="R17">
-        <v>659.6629329650581</v>
+        <v>368.14064441664</v>
       </c>
       <c r="S17">
-        <v>0.009240323425006606</v>
+        <v>0.004794450840219366</v>
       </c>
       <c r="T17">
-        <v>0.009240323425006605</v>
+        <v>0.004794450840219366</v>
       </c>
     </row>
   </sheetData>
